--- a/biology/Botanique/Bunium_bulbocastanum/Bunium_bulbocastanum.xlsx
+++ b/biology/Botanique/Bunium_bulbocastanum/Bunium_bulbocastanum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bunium bulbocastanum L. est une espèce de plantes de la famille des Apiaceae (Ombellifères) originaire d'Europe occidentale et méridionale.
-Synonymes : Carum bulbocastanum (L.) W. D. J. Koch, Bulbocastanum linnaei Schur[1], Sium bulbocastanum Spreng[2].
+Synonymes : Carum bulbocastanum (L.) W. D. J. Koch, Bulbocastanum linnaei Schur, Sium bulbocastanum Spreng.
 </t>
         </is>
       </c>
@@ -514,10 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">En français standard
-Châtaigne de terre, noix de terre[2], terre-noix.
-Dans les dialectes
-Génotte, gernotte, jarnotte, quenotte[3]. (Normandie, Bretagne gallo) (de l'ancien scandinave *jarðhnot « noix de terre » (cf. danois jordnød « bunium bulbocastanium » et « cacahuète, arachide »).
+          <t>En français standard</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Châtaigne de terre, noix de terre, terre-noix.
 </t>
         </is>
       </c>
@@ -543,12 +558,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Noms vernaculaires</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">C'est une plante herbacée vivace de 30 à 100 cm de haut[3], dont la racine tubérisée est comestible. Les fleurs hermaphrodites, aux pétales blancs, sont regroupées en ombelles et fleurissent de juin à juillet. Cette espèce peut être confondue avec Conopodium majus[3].
+          <t>Dans les dialectes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Génotte, gernotte, jarnotte, quenotte. (Normandie, Bretagne gallo) (de l'ancien scandinave *jarðhnot « noix de terre » (cf. danois jordnød « bunium bulbocastanium » et « cacahuète, arachide »).
 </t>
         </is>
       </c>
@@ -574,12 +595,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Distribution</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'aire de répartition originelle de cette espèce comprend l'Europe méridionale (Espagne, Italie, ancienne Yougoslavie...) et l'Afrique du Nord (Maroc), et s'étend vers le nord jusqu'en Angleterre, Allemagne, aux Pays-Bas et en Slovénie[3].
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une plante herbacée vivace de 30 à 100 cm de haut, dont la racine tubérisée est comestible. Les fleurs hermaphrodites, aux pétales blancs, sont regroupées en ombelles et fleurissent de juin à juillet. Cette espèce peut être confondue avec Conopodium majus.
 </t>
         </is>
       </c>
@@ -605,13 +628,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Usage alimentaire</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La plante aurait été cultivée pour la consommation avant l'introduction de la pomme de terre d'après Fournier[3].
-Les tubercules sont comestibles. Ils se cuisinaient comme galettes au four. Les feuilles peuvent remplacer le persil et les fruits le cumin[3].
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'aire de répartition originelle de cette espèce comprend l'Europe méridionale (Espagne, Italie, ancienne Yougoslavie...) et l'Afrique du Nord (Maroc), et s'étend vers le nord jusqu'en Angleterre, Allemagne, aux Pays-Bas et en Slovénie.
 </t>
         </is>
       </c>
@@ -637,17 +661,53 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Usage alimentaire</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plante aurait été cultivée pour la consommation avant l'introduction de la pomme de terre d'après Fournier.
+Les tubercules sont comestibles. Ils se cuisinaient comme galettes au four. Les feuilles peuvent remplacer le persil et les fruits le cumin.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Bunium_bulbocastanum</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bunium_bulbocastanum</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Liste des sous-espèces et variétés</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (1 mai 2014)[4] :
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (1 mai 2014) :
 sous-espèce Bunium bulbocastanum subsp. balearicum (Sennen) O.Bolòs &amp; Vigo
 sous-espèce Bunium bulbocastanum subsp. macuca (Boiss.) O.Bolòs &amp; Vigo
-Selon NCBI  (1 mai 2014)[5] :
+Selon NCBI  (1 mai 2014) :
 variété Bunium bulbocastanum var. peucedanoides
-Selon Tropicos                                           (1 mai 2014)[6] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (1 mai 2014) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèce Bunium bulbocastanum subsp. macuca (Boiss.) O. Bolòs &amp; Vigo
 variété Bunium bulbocastanum var. aphyllum (Jan ex DC.) Fiori &amp; Paol.
 variété Bunium bulbocastanum var. baldense Rigo ex Huter
